--- a/src/test/resources/spreadsheet.xlsx
+++ b/src/test/resources/spreadsheet.xlsx
@@ -6,69 +6,73 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
-    <t>SEQ</t>
+    <t>seq</t>
   </si>
   <si>
-    <t>Data1</t>
+    <t>d1</t>
   </si>
   <si>
-    <t>Data2</t>
+    <t>d2</t>
   </si>
   <si>
-    <t>Data3</t>
+    <t>d3</t>
   </si>
   <si>
-    <t>Date4</t>
+    <t>d4</t>
   </si>
   <si>
-    <t>100A</t>
+    <t>A1</t>
   </si>
   <si>
-    <t>cat</t>
+    <t>a</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>b</t>
   </si>
   <si>
-    <t>fish</t>
+    <t>c</t>
   </si>
   <si>
-    <t>cow</t>
+    <t>A2</t>
   </si>
   <si>
-    <t>101A</t>
+    <t>f</t>
   </si>
   <si>
-    <t>tree</t>
+    <t>g</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>h</t>
   </si>
   <si>
-    <t>plant</t>
+    <t>A3</t>
   </si>
   <si>
-    <t>dirt</t>
+    <t>i</t>
   </si>
   <si>
-    <t>102A</t>
+    <t>j</t>
   </si>
   <si>
-    <t>chair</t>
+    <t>A4</t>
   </si>
   <si>
-    <t>table</t>
+    <t>k</t>
   </si>
   <si>
-    <t>shelve</t>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -78,11 +82,16 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="12"/>
@@ -106,7 +115,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -149,26 +164,32 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -189,17 +210,1239 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+  <a:themeElements>
+    <a:clrScheme name="Blank">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="404040"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="BFBFBF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="499BC9"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="6EC038"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="F1D130"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFA93A"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF2D21"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="6C2085"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Blank">
+      <a:majorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -209,9 +1452,12 @@
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="256" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
@@ -231,146 +1477,456 @@
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="20.35" customHeight="1">
       <c r="A3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="C3" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="D3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="B5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="C5" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="E4" s="6">
-        <v>1.234567890987654e+18</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
       <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;"Helvetica,Regular"&amp;11&amp;P</oddFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="8" customWidth="1"/>
+    <col min="10" max="256" width="9" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;11&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>